--- a/data/trans_orig/P14B38_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3EBB204-5633-4BD4-BA53-FE5AC31A5206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6CC3AC-4949-49F9-A3EE-C1C5093AB585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F86342F9-56E5-4501-A098-E5248DB655BA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90CC1B74-0B63-4893-A56F-966DC6C9EF1D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="168">
   <si>
     <t>Población cuyo otro dolor crónico le limita en 2023 (Tasa respuesta: 8,8%)</t>
   </si>
@@ -110,55 +110,55 @@
     <t>79,91%</t>
   </si>
   <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>85,98%</t>
   </si>
   <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>20,09%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
   </si>
   <si>
     <t>14,02%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -167,55 +167,55 @@
     <t>80,09%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
   </si>
   <si>
     <t>73,69%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
   <si>
     <t>19,91%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -224,49 +224,49 @@
     <t>92,57%</t>
   </si>
   <si>
-    <t>73,47%</t>
+    <t>76,27%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>88,97%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>7,43%</t>
   </si>
   <si>
-    <t>26,53%</t>
+    <t>23,73%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>11,03%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -275,55 +275,55 @@
     <t>66,6%</t>
   </si>
   <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>45,02%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
   </si>
   <si>
     <t>54,98%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -332,55 +332,55 @@
     <t>75,22%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
   </si>
   <si>
     <t>77,44%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>24,78%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
   </si>
   <si>
     <t>21,02%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -389,148 +389,154 @@
     <t>80,77%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
   </si>
   <si>
     <t>75,33%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>4,65%</t>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>24,67%</t>
   </si>
   <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>73,44%</t>
   </si>
   <si>
     <t>76,54%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
   </si>
   <si>
     <t>81,64%</t>
   </si>
   <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
   </si>
   <si>
     <t>23,46%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>75,68%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>78,61%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>24,32%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>21,39%</t>
   </si>
   <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -945,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE1193B-E8D4-4778-84A9-1941B29054B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC494E0-3392-4A27-A04F-367ED6D60D71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,10 +2008,10 @@
         <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -2014,13 +2020,13 @@
         <v>42772</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -2029,13 +2035,13 @@
         <v>59065</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2056,13 @@
         <v>3879</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -2065,13 +2071,13 @@
         <v>14008</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -2080,13 +2086,13 @@
         <v>17887</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,7 +2148,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2154,10 +2160,10 @@
         <v>13812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>11</v>
@@ -2169,13 +2175,13 @@
         <v>29217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>57</v>
@@ -2184,13 +2190,13 @@
         <v>43029</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,7 +2211,7 @@
         <v>718</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>17</v>
@@ -2315,7 +2321,7 @@
         <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>437</v>
@@ -2324,13 +2330,13 @@
         <v>242113</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>608</v>
@@ -2339,13 +2345,13 @@
         <v>373525</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2366,13 @@
         <v>28915</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>124</v>
@@ -2375,13 +2381,13 @@
         <v>72709</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>161</v>
@@ -2390,13 +2396,13 @@
         <v>101624</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,7 +2458,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B38_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B38_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C6CC3AC-4949-49F9-A3EE-C1C5093AB585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E75AB4-8D92-4BD2-8C8F-692D9DE5A8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{90CC1B74-0B63-4893-A56F-966DC6C9EF1D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8EC0568D-B884-40AF-B28E-7097C522A7B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -951,7 +951,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC494E0-3392-4A27-A04F-367ED6D60D71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A49BCD-C5C7-4F7F-AFE6-46FC4F60896A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
